--- a/tests/validation_results/Validation_Inputs_10.xlsx
+++ b/tests/validation_results/Validation_Inputs_10.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2641E7BA-847E-4707-BA67-490D3175C72B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{028560A6-1038-4DB8-9CB1-225B6E3C429A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="868" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="868" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover Sheet" sheetId="10" r:id="rId1"/>
@@ -1665,9 +1665,6 @@
     <t>Default folder to store log messages and the excel results, this can be overwritten using the GUI</t>
   </si>
   <si>
-    <t>Include_Convex</t>
-  </si>
-  <si>
     <t>Updated to include ConvexHull calculation</t>
   </si>
   <si>
@@ -1852,6 +1849,9 @@
   </si>
   <si>
     <t>Line 10</t>
+  </si>
+  <si>
+    <t>Include_Loci</t>
   </si>
 </sst>
 </file>
@@ -3541,7 +3541,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>167</v>
@@ -3550,12 +3550,12 @@
         <v>44015</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B9" s="7" t="s">
         <v>167</v>
@@ -3564,7 +3564,7 @@
         <v>44030</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -3740,8 +3740,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
@@ -3785,7 +3785,7 @@
         <v>178</v>
       </c>
       <c r="B5" s="28" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C5" s="33" t="s">
         <v>199</v>
@@ -3796,7 +3796,7 @@
         <v>179</v>
       </c>
       <c r="B6" s="29" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C6" s="33" t="s">
         <v>177</v>
@@ -3870,13 +3870,13 @@
     </row>
     <row r="13" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="31" t="s">
-        <v>200</v>
+        <v>262</v>
       </c>
       <c r="B13" s="30" t="b">
         <v>1</v>
       </c>
       <c r="C13" s="34" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
   </sheetData>
@@ -3962,44 +3962,44 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="18" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B5" s="22" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C5" s="22" t="s">
         <v>181</v>
       </c>
       <c r="D5" s="22" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="18" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B6" s="22" t="s">
+        <v>221</v>
+      </c>
+      <c r="C6" s="22" t="s">
         <v>222</v>
       </c>
-      <c r="C6" s="22" t="s">
-        <v>223</v>
-      </c>
       <c r="D6" s="22" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B7" s="22" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D7" s="22" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -4132,7 +4132,7 @@
   <sheetData>
     <row r="1" spans="1:28" ht="84" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="64" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B1" s="64"/>
       <c r="C1" s="60"/>
@@ -4344,13 +4344,13 @@
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6" s="18" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D6" s="18" t="s">
         <v>189</v>
@@ -4382,22 +4382,22 @@
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D7" s="18" t="s">
         <v>189</v>
       </c>
       <c r="E7" s="18" t="s">
+        <v>235</v>
+      </c>
+      <c r="F7" s="18" t="s">
         <v>236</v>
-      </c>
-      <c r="F7" s="18" t="s">
-        <v>237</v>
       </c>
       <c r="G7" s="18" t="s">
         <v>189</v>
@@ -9251,7 +9251,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B3D923C-DF32-42AB-9854-C26FD0393729}">
   <dimension ref="A1:AB166"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
@@ -9275,7 +9275,7 @@
   <sheetData>
     <row r="1" spans="1:19" ht="84" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="72" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B1" s="72"/>
       <c r="C1" s="60"/>
@@ -9336,39 +9336,39 @@
         <v>185</v>
       </c>
       <c r="B4" s="69" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C4" s="71"/>
       <c r="D4" s="66" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E4" s="68"/>
       <c r="F4" s="66" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G4" s="68"/>
       <c r="H4" s="66" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I4" s="68"/>
       <c r="J4" s="66" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="K4" s="68"/>
       <c r="L4" s="66" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="M4" s="68"/>
       <c r="N4" s="66" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="O4" s="68"/>
       <c r="P4" s="66" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="Q4" s="68"/>
       <c r="R4" s="66" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="S4" s="68"/>
     </row>
@@ -9377,55 +9377,55 @@
         <v>0</v>
       </c>
       <c r="B5" s="52" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C5" s="53" t="s">
         <v>165</v>
       </c>
       <c r="D5" s="52" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E5" s="53" t="s">
         <v>165</v>
       </c>
       <c r="F5" s="52" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G5" s="53" t="s">
         <v>165</v>
       </c>
       <c r="H5" s="52" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I5" s="53" t="s">
         <v>165</v>
       </c>
       <c r="J5" s="52" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="K5" s="53" t="s">
         <v>165</v>
       </c>
       <c r="L5" s="52" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="M5" s="53" t="s">
         <v>165</v>
       </c>
       <c r="N5" s="52" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="O5" s="53" t="s">
         <v>165</v>
       </c>
       <c r="P5" s="52" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="Q5" s="53" t="s">
         <v>165</v>
       </c>
       <c r="R5" s="52" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="S5" s="53" t="s">
         <v>165</v>
@@ -9433,13 +9433,13 @@
     </row>
     <row r="6" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="18" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D6" s="18"/>
       <c r="E6" s="18"/>
@@ -9460,13 +9460,13 @@
     </row>
     <row r="7" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D7" s="18"/>
       <c r="E7" s="18"/>
@@ -9487,13 +9487,13 @@
     </row>
     <row r="8" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="18" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B8" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D8" s="18"/>
       <c r="E8" s="18"/>
@@ -9514,13 +9514,13 @@
     </row>
     <row r="9" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="18" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B9" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D9" s="18"/>
       <c r="E9" s="18"/>
@@ -9541,13 +9541,13 @@
     </row>
     <row r="10" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="18" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B10" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D10" s="18"/>
       <c r="E10" s="18"/>
@@ -9568,13 +9568,13 @@
     </row>
     <row r="11" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="18" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B11" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D11" s="18"/>
       <c r="E11" s="18"/>
@@ -9595,13 +9595,13 @@
     </row>
     <row r="12" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="18" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B12" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D12" s="18"/>
       <c r="E12" s="18"/>
@@ -9622,13 +9622,13 @@
     </row>
     <row r="13" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="18" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B13" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D13" s="18"/>
       <c r="E13" s="18"/>
@@ -9649,13 +9649,13 @@
     </row>
     <row r="14" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="18" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B14" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D14" s="18"/>
       <c r="E14" s="18"/>
@@ -9676,13 +9676,13 @@
     </row>
     <row r="15" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="18" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B15" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C15" s="18" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D15" s="18"/>
       <c r="E15" s="18"/>
@@ -13003,13 +13003,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="18" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D5" s="18" t="b">
         <v>0</v>
@@ -13017,13 +13017,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="18" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D6" s="18" t="b">
         <v>0</v>
@@ -13031,13 +13031,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D7" s="18" t="b">
         <v>0</v>
@@ -13045,13 +13045,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="18" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D8" s="18" t="b">
         <v>0</v>
@@ -13059,13 +13059,13 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="18" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D9" s="18" t="b">
         <v>0</v>
@@ -13073,13 +13073,13 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="19" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B10" s="18" t="s">
+        <v>249</v>
+      </c>
+      <c r="C10" s="18" t="s">
         <v>250</v>
-      </c>
-      <c r="C10" s="18" t="s">
-        <v>251</v>
       </c>
       <c r="D10" s="18" t="b">
         <v>0</v>
@@ -13746,7 +13746,7 @@
         <v>171</v>
       </c>
       <c r="B4" s="38" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C4" s="42" t="s">
         <v>172</v>
@@ -14511,7 +14511,7 @@
         <v>182</v>
       </c>
       <c r="B4" s="38" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C4" s="42" t="s">
         <v>184</v>
@@ -14688,26 +14688,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement>
-    <iab7cdb7554d4997ae876b11632fa575 xmlns="3cada6dc-2705-46ed-bab2-0b2cd6d935ca">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </iab7cdb7554d4997ae876b11632fa575>
-    <TaxCatchAll xmlns="3cada6dc-2705-46ed-bab2-0b2cd6d935ca"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C9B3B8AC64AC88418540180D602CE6AB" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c03373d3e8f67dac2598d545e73c3e0f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3cada6dc-2705-46ed-bab2-0b2cd6d935ca" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f693bfc3a603cfa0c3f0b58e702f3d19" ns2:_="">
     <xsd:import namespace="3cada6dc-2705-46ed-bab2-0b2cd6d935ca"/>
@@ -14859,31 +14839,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B5D7682-109C-47ED-9D9D-D061E76CCAD3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement>
+    <iab7cdb7554d4997ae876b11632fa575 xmlns="3cada6dc-2705-46ed-bab2-0b2cd6d935ca">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </iab7cdb7554d4997ae876b11632fa575>
+    <TaxCatchAll xmlns="3cada6dc-2705-46ed-bab2-0b2cd6d935ca"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FCC61AA8-C35E-4598-8617-08B80F018AC2}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="3cada6dc-2705-46ed-bab2-0b2cd6d935ca"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2A5E1C23-6545-45A2-BF0C-826678B16173}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -14899,4 +14875,28 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FCC61AA8-C35E-4598-8617-08B80F018AC2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="3cada6dc-2705-46ed-bab2-0b2cd6d935ca"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B5D7682-109C-47ED-9D9D-D061E76CCAD3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/tests/validation_results/Validation_Inputs_10.xlsx
+++ b/tests/validation_results/Validation_Inputs_10.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23127"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{028560A6-1038-4DB8-9CB1-225B6E3C429A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49D737D3-E8F4-4AF1-833B-73563660CAF1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="868" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2205" yWindow="2760" windowWidth="21600" windowHeight="11385" tabRatio="868" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover Sheet" sheetId="10" r:id="rId1"/>
@@ -1728,9 +1728,6 @@
     <t>C:\Users\david\PycharmProjects\JA7896-AEMO_PF_Harmonic_Tool\tests\validation_results</t>
   </si>
   <si>
-    <t>AEMO_VIC_V0_20200723</t>
-  </si>
-  <si>
     <t>Medium Load Case</t>
   </si>
   <si>
@@ -1852,6 +1849,9 @@
   </si>
   <si>
     <t>Include_Loci</t>
+  </si>
+  <si>
+    <t>AEMO_VIC_V0_TEST_CASE</t>
   </si>
 </sst>
 </file>
@@ -3740,7 +3740,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
@@ -3870,7 +3870,7 @@
     </row>
     <row r="13" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="31" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B13" s="30" t="b">
         <v>1</v>
@@ -3913,8 +3913,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
@@ -3962,44 +3962,44 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="18" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B5" s="22" t="s">
-        <v>221</v>
+        <v>262</v>
       </c>
       <c r="C5" s="22" t="s">
         <v>181</v>
       </c>
       <c r="D5" s="22" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="18" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B6" s="22" t="s">
+        <v>262</v>
+      </c>
+      <c r="C6" s="22" t="s">
         <v>221</v>
       </c>
-      <c r="C6" s="22" t="s">
-        <v>222</v>
-      </c>
       <c r="D6" s="22" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B7" s="22" t="s">
-        <v>221</v>
+        <v>262</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D7" s="22" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -4344,13 +4344,13 @@
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6" s="18" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D6" s="18" t="s">
         <v>189</v>
@@ -4382,22 +4382,22 @@
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D7" s="18" t="s">
         <v>189</v>
       </c>
       <c r="E7" s="18" t="s">
+        <v>234</v>
+      </c>
+      <c r="F7" s="18" t="s">
         <v>235</v>
-      </c>
-      <c r="F7" s="18" t="s">
-        <v>236</v>
       </c>
       <c r="G7" s="18" t="s">
         <v>189</v>
@@ -9377,55 +9377,55 @@
         <v>0</v>
       </c>
       <c r="B5" s="52" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C5" s="53" t="s">
         <v>165</v>
       </c>
       <c r="D5" s="52" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E5" s="53" t="s">
         <v>165</v>
       </c>
       <c r="F5" s="52" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G5" s="53" t="s">
         <v>165</v>
       </c>
       <c r="H5" s="52" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="I5" s="53" t="s">
         <v>165</v>
       </c>
       <c r="J5" s="52" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="K5" s="53" t="s">
         <v>165</v>
       </c>
       <c r="L5" s="52" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="M5" s="53" t="s">
         <v>165</v>
       </c>
       <c r="N5" s="52" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="O5" s="53" t="s">
         <v>165</v>
       </c>
       <c r="P5" s="52" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="Q5" s="53" t="s">
         <v>165</v>
       </c>
       <c r="R5" s="52" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="S5" s="53" t="s">
         <v>165</v>
@@ -9436,7 +9436,7 @@
         <v>203</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C6" s="18" t="s">
         <v>214</v>
@@ -9463,7 +9463,7 @@
         <v>204</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C7" s="18" t="s">
         <v>214</v>
@@ -9490,7 +9490,7 @@
         <v>205</v>
       </c>
       <c r="B8" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C8" s="18" t="s">
         <v>214</v>
@@ -9517,7 +9517,7 @@
         <v>206</v>
       </c>
       <c r="B9" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C9" s="18" t="s">
         <v>214</v>
@@ -9544,7 +9544,7 @@
         <v>207</v>
       </c>
       <c r="B10" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C10" s="18" t="s">
         <v>214</v>
@@ -9571,7 +9571,7 @@
         <v>208</v>
       </c>
       <c r="B11" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C11" s="18" t="s">
         <v>214</v>
@@ -9598,7 +9598,7 @@
         <v>209</v>
       </c>
       <c r="B12" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C12" s="18" t="s">
         <v>214</v>
@@ -9625,7 +9625,7 @@
         <v>210</v>
       </c>
       <c r="B13" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C13" s="18" t="s">
         <v>214</v>
@@ -9652,7 +9652,7 @@
         <v>211</v>
       </c>
       <c r="B14" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C14" s="18" t="s">
         <v>214</v>
@@ -9676,10 +9676,10 @@
     </row>
     <row r="15" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="18" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B15" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C15" s="18" t="s">
         <v>214</v>
@@ -13003,13 +13003,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="18" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D5" s="18" t="b">
         <v>0</v>
@@ -13017,13 +13017,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="18" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D6" s="18" t="b">
         <v>0</v>
@@ -13031,13 +13031,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D7" s="18" t="b">
         <v>0</v>
@@ -13045,13 +13045,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="18" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D8" s="18" t="b">
         <v>0</v>
@@ -13059,13 +13059,13 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="18" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D9" s="18" t="b">
         <v>0</v>
@@ -13073,13 +13073,13 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="19" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B10" s="18" t="s">
+        <v>248</v>
+      </c>
+      <c r="C10" s="18" t="s">
         <v>249</v>
-      </c>
-      <c r="C10" s="18" t="s">
-        <v>250</v>
       </c>
       <c r="D10" s="18" t="b">
         <v>0</v>
@@ -14688,6 +14688,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement>
+    <iab7cdb7554d4997ae876b11632fa575 xmlns="3cada6dc-2705-46ed-bab2-0b2cd6d935ca">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </iab7cdb7554d4997ae876b11632fa575>
+    <TaxCatchAll xmlns="3cada6dc-2705-46ed-bab2-0b2cd6d935ca"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C9B3B8AC64AC88418540180D602CE6AB" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c03373d3e8f67dac2598d545e73c3e0f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3cada6dc-2705-46ed-bab2-0b2cd6d935ca" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f693bfc3a603cfa0c3f0b58e702f3d19" ns2:_="">
     <xsd:import namespace="3cada6dc-2705-46ed-bab2-0b2cd6d935ca"/>
@@ -14839,27 +14859,31 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement>
-    <iab7cdb7554d4997ae876b11632fa575 xmlns="3cada6dc-2705-46ed-bab2-0b2cd6d935ca">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </iab7cdb7554d4997ae876b11632fa575>
-    <TaxCatchAll xmlns="3cada6dc-2705-46ed-bab2-0b2cd6d935ca"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B5D7682-109C-47ED-9D9D-D061E76CCAD3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FCC61AA8-C35E-4598-8617-08B80F018AC2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="3cada6dc-2705-46ed-bab2-0b2cd6d935ca"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2A5E1C23-6545-45A2-BF0C-826678B16173}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -14875,28 +14899,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FCC61AA8-C35E-4598-8617-08B80F018AC2}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="3cada6dc-2705-46ed-bab2-0b2cd6d935ca"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B5D7682-109C-47ED-9D9D-D061E76CCAD3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>